--- a/data/procedure_list.xlsx
+++ b/data/procedure_list.xlsx
@@ -1,37 +1,231 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
+    <t>PROC02</t>
+  </si>
+  <si>
+    <t>PROC12</t>
+  </si>
+  <si>
+    <t>PROC13</t>
+  </si>
+  <si>
+    <t>PROC15</t>
+  </si>
+  <si>
+    <t>PROC16</t>
+  </si>
+  <si>
+    <t>PROC17 (p.1 à 14)</t>
+  </si>
+  <si>
+    <t>PROC17 (p.15 à fin)</t>
+  </si>
+  <si>
+    <t>PROC17 DR01</t>
+  </si>
+  <si>
+    <t>PROC17 DR04</t>
+  </si>
+  <si>
+    <t>PROC18</t>
+  </si>
+  <si>
+    <t>PROC19</t>
+  </si>
+  <si>
+    <t>PROC20 (p.1 à 7)</t>
+  </si>
+  <si>
+    <t>PROC20 (p.8 à 14)</t>
+  </si>
+  <si>
+    <t>PROC20 DR03</t>
+  </si>
+  <si>
+    <t>PROC20 DR05</t>
+  </si>
+  <si>
+    <t>PROC20 DR06</t>
+  </si>
+  <si>
+    <t>PROC20 DR07 + DR08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROC20 DR09 + DR10</t>
+  </si>
+  <si>
+    <t>PROC21 + DR02 + DR03</t>
+  </si>
+  <si>
+    <t>PROC24</t>
+  </si>
+  <si>
+    <t>PROC25</t>
+  </si>
+  <si>
+    <t>PROC27 + DR01</t>
+  </si>
+  <si>
+    <t>PROC84</t>
+  </si>
+  <si>
+    <t>PROC171</t>
+  </si>
+  <si>
+    <t>PROC179</t>
+  </si>
+  <si>
+    <t>PROC198</t>
+  </si>
+  <si>
+    <t>PROC300 + DR01 + DR02</t>
+  </si>
+  <si>
+    <t>PROC374</t>
+  </si>
+  <si>
+    <t>PROCXXX</t>
+  </si>
+  <si>
+    <t>Utilisation des cyanures ou de composés apparentés en laboratoire de synthèse</t>
+  </si>
+  <si>
+    <t>Manipulation des aiguilles et coupures en laboratoire de synthèse</t>
+  </si>
+  <si>
+    <t>Opération de nuit ou le week-end en synthèse</t>
+  </si>
+  <si>
+    <t>Procédure d'urgence et d'écavuation dans les laboratoires de chimie</t>
+  </si>
+  <si>
+    <t>Vérifications et discussions mensuelles de sécurité</t>
+  </si>
+  <si>
+    <t>Consignes de travail en laboratoire de synthèse (p.1 à 14)</t>
+  </si>
+  <si>
+    <t>Consignes de travail en laboratoire de synthèse (p.15 à fin)</t>
+  </si>
+  <si>
+    <t>Safety Check List</t>
+  </si>
+  <si>
+    <t>Tableau récapitulatif des différentes variétés de gants</t>
+  </si>
+  <si>
+    <t>Accueil de sécurité des nouveaux arrivants dans les laboratoires de synthèse</t>
+  </si>
+  <si>
+    <t>Procédure sur les solvants peroxydables</t>
+  </si>
+  <si>
+    <t>Guide pratique du chimiste (p.1 à 7)</t>
+  </si>
+  <si>
+    <t>Guide pratique du chimiste (p.8 à 14)</t>
+  </si>
+  <si>
+    <t>Solvants remplaçants les solvants toxiques</t>
+  </si>
+  <si>
+    <t>Liste de produits incompatibles</t>
+  </si>
+  <si>
+    <t>Liste de produits peroxydables</t>
+  </si>
+  <si>
+    <t>Produits à usage contrôlé et interdits à la manipulation</t>
+  </si>
+  <si>
+    <t>Destruction des réactifs dangereux</t>
+  </si>
+  <si>
+    <t>Manipulation des produits dont la décomposition présente un risque</t>
+  </si>
+  <si>
+    <t>Accès et port EPI au laboratoire</t>
+  </si>
+  <si>
+    <t>Alcool soumis à régie et gestion de l'éthanol non dénaturé au CRLD</t>
+  </si>
+  <si>
+    <t>Précurseurs de drogue</t>
+  </si>
+  <si>
+    <t>Fiche mensuelle de mise en œuvre de produits chimiques</t>
+  </si>
+  <si>
+    <t>Manipulation en tubes scellés</t>
+  </si>
+  <si>
+    <t>Rôle et missions du correspondant HSE au CRLD</t>
+  </si>
+  <si>
+    <t>Bonnes pratiques d'utilisation des postes ventilés</t>
+  </si>
+  <si>
+    <t>Stockage et inventaire des composés chimiques</t>
+  </si>
+  <si>
+    <t>Procédure pour la réalisation d'expérience photochimique</t>
+  </si>
+  <si>
+    <t>Procédure électrochimie</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +240,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,130 +556,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PROC12</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Manipulation des aiguilles et coupures en laboratoire de synthèse</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PROC13</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Opération de nuit ou le week-end en synthèse</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PROC02</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Reactions en tubes scellés</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PROC198</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bonnes pratiques d'utilisation des postes ventilés</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PROC17</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Consignes de travail en laboratoire de synthèse (p.1 à 14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PROC17</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Consignes de travail en laboratoire de synthèse (p.15 à fin)</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/procedure_list.xlsx
+++ b/data/procedure_list.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/axel_cano_bayer_com/Documents/desktop/Axel/Code/Projets/byr_HSE_subjects/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_1489E3FAF613C8264F2C4CFEAD49961D5E28243C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D05E0C8D-73A6-4491-8B7B-F44C85C323A7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -205,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,13 +288,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +340,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +409,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -585,7 +620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -593,7 +628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -601,7 +636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -609,7 +644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -617,7 +652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -628,7 +663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -642,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -650,7 +685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -658,7 +693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -666,7 +701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -674,7 +709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -685,7 +720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -699,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -707,7 +742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -715,7 +750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -723,7 +758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -731,7 +766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -739,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -747,7 +782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -755,7 +790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -763,7 +798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -771,7 +806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -779,7 +814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -787,7 +822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -795,7 +830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -803,7 +838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -811,7 +846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -819,7 +854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -829,5 +864,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;22&amp;KFF8939 RESTRICTED</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>